--- a/dmsan/reclaimer/scores/South Africa/sys_uncertainties.xlsx
+++ b/dmsan/reclaimer/scores/South Africa/sys_uncertainties.xlsx
@@ -44229,7 +44229,7 @@
         <v>6.857942399126151</v>
       </c>
       <c r="I20" t="n">
-        <v>39.53322301639842</v>
+        <v>39.53322301639843</v>
       </c>
     </row>
     <row r="21">
@@ -44316,7 +44316,7 @@
         <v>7.369430098406709</v>
       </c>
       <c r="I23" t="n">
-        <v>35.07950855968333</v>
+        <v>35.07950855968334</v>
       </c>
     </row>
   </sheetData>
